--- a/spliced/falling/2023-03-25_18-01-46/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-46/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.904903650283813</v>
+        <v>-3.747647881507874</v>
       </c>
       <c r="D2" t="n">
-        <v>4.009042739868163</v>
+        <v>4.277600646018982</v>
       </c>
       <c r="E2" t="n">
-        <v>1.121196746826173</v>
+        <v>0.2108629420399666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.064446285367012</v>
+        <v>0.0218384321779012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1020144969224929</v>
+        <v>-0.036499198526144</v>
       </c>
       <c r="H2" t="n">
-        <v>0.090408056974411</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.147337973117831</v>
+        <v>-3.872398495674133</v>
       </c>
       <c r="D3" t="n">
-        <v>3.341572999954222</v>
+        <v>4.347799897193909</v>
       </c>
       <c r="E3" t="n">
-        <v>1.590219795703887</v>
+        <v>0.4252039864659314</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0655152946710586</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2060143053531646</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2438879460096359</v>
+        <v>0.0018325957935303</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.578064322471619</v>
+        <v>-3.904903650283813</v>
       </c>
       <c r="D4" t="n">
-        <v>2.440073847770686</v>
+        <v>4.009042739868163</v>
       </c>
       <c r="E4" t="n">
-        <v>1.919119298458106</v>
+        <v>1.121196746826173</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1971567571163177</v>
+        <v>0.064446285367012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3791945874691009</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0610865242779254</v>
+        <v>0.090408056974411</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.763241469860086</v>
+        <v>-4.147337973117831</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9537072181701609</v>
+        <v>3.341572999954222</v>
       </c>
       <c r="E5" t="n">
-        <v>3.53445836901665</v>
+        <v>1.590219795703887</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3149010241031647</v>
+        <v>-0.0655152946710586</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4572326242923736</v>
+        <v>0.2060143053531646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2616030275821686</v>
+        <v>0.2438879460096359</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-6.981464385986306</v>
+        <v>-4.578064322471619</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2511000633239622</v>
+        <v>2.440073847770686</v>
       </c>
       <c r="E6" t="n">
-        <v>4.341212272644047</v>
+        <v>1.919119298458106</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2191479057073593</v>
+        <v>0.1971567571163177</v>
       </c>
       <c r="G6" t="n">
-        <v>1.047023057937622</v>
+        <v>0.3791945874691009</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.107512280344963</v>
+        <v>-0.0610865242779254</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.964182496070859</v>
+        <v>-4.763241469860086</v>
       </c>
       <c r="D7" t="n">
-        <v>2.53690141439438</v>
+        <v>0.9537072181701609</v>
       </c>
       <c r="E7" t="n">
-        <v>5.374873697757723</v>
+        <v>3.53445836901665</v>
       </c>
       <c r="F7" t="n">
-        <v>1.168585181236267</v>
+        <v>-0.3149010241031647</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.228741884231567</v>
+        <v>0.4572326242923736</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9682214260101318</v>
+        <v>0.2616030275821686</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6403729915618919</v>
+        <v>-6.981464385986306</v>
       </c>
       <c r="D8" t="n">
-        <v>8.453629255294809</v>
+        <v>-0.2511000633239622</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.445600330829628</v>
+        <v>4.341212272644047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5827654600143433</v>
+        <v>-0.2191479057073593</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8587238192558289</v>
+        <v>1.047023057937622</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.957046031951904</v>
+        <v>-0.107512280344963</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25.52450680732733</v>
+        <v>-1.964182496070859</v>
       </c>
       <c r="D9" t="n">
-        <v>10.11635231971741</v>
+        <v>2.53690141439438</v>
       </c>
       <c r="E9" t="n">
-        <v>-29.67163440585143</v>
+        <v>5.374873697757723</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6496551632881165</v>
+        <v>1.168585181236267</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.849991798400879</v>
+        <v>-2.228741884231567</v>
       </c>
       <c r="H9" t="n">
-        <v>1.479821085929871</v>
+        <v>-0.9682214260101318</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.21333217620842</v>
+        <v>0.6403729915618919</v>
       </c>
       <c r="D10" t="n">
-        <v>6.795180916786184</v>
+        <v>8.453629255294809</v>
       </c>
       <c r="E10" t="n">
-        <v>-24.62865638732902</v>
+        <v>-1.445600330829628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3932445049285888</v>
+        <v>0.5827654600143433</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2875648140907287</v>
+        <v>0.8587238192558289</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.4578435122966766</v>
+        <v>-2.957046031951904</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.512938618659968</v>
+        <v>25.52450680732733</v>
       </c>
       <c r="D11" t="n">
-        <v>4.070763558149341</v>
+        <v>10.11635231971741</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.205098286271084</v>
+        <v>-29.67163440585143</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0209221355617046</v>
+        <v>-0.6496551632881165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8381071090698242</v>
+        <v>-2.849991798400879</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4121813178062439</v>
+        <v>1.479821085929871</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.09360861778259269</v>
+        <v>21.21333217620842</v>
       </c>
       <c r="D12" t="n">
-        <v>5.09270715713501</v>
+        <v>6.795180916786184</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.006848305463790894</v>
+        <v>-24.62865638732902</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3355177342891693</v>
+        <v>0.3932445049285888</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.3600914478302</v>
+        <v>-0.2875648140907287</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2121229618787765</v>
+        <v>-0.4578435122966766</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4487386941909907</v>
+        <v>1.512938618659968</v>
       </c>
       <c r="D13" t="n">
-        <v>5.822665631771091</v>
+        <v>4.070763558149341</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.949815332889539</v>
+        <v>-2.205098286271084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1876883506774902</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.909106612205505</v>
+        <v>0.8381071090698242</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6495024561882019</v>
+        <v>-0.4121813178062439</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.47012042999266</v>
+        <v>0.09360861778259269</v>
       </c>
       <c r="D14" t="n">
-        <v>6.646041870117178</v>
+        <v>5.09270715713501</v>
       </c>
       <c r="E14" t="n">
-        <v>2.636732816696162</v>
+        <v>-0.006848305463790894</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6143777370452881</v>
+        <v>-0.3355177342891693</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0381790772080421</v>
+        <v>-1.3600914478302</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1973094791173935</v>
+        <v>0.2121229618787765</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02146565914155785</v>
+        <v>0.4487386941909907</v>
       </c>
       <c r="D15" t="n">
-        <v>4.178134083747851</v>
+        <v>5.822665631771091</v>
       </c>
       <c r="E15" t="n">
-        <v>1.41586604714393</v>
+        <v>-1.949815332889539</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2321287989616394</v>
+        <v>0.1876883506774902</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2197587788105011</v>
+        <v>-1.909106612205505</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07544185966253281</v>
+        <v>-0.6495024561882019</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8478746414184657</v>
+        <v>3.47012042999266</v>
       </c>
       <c r="D16" t="n">
-        <v>4.644729614257818</v>
+        <v>6.646041870117178</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6306794285774192</v>
+        <v>2.636732816696162</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.051312681287527</v>
+        <v>-0.6143777370452881</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1487456858158111</v>
+        <v>0.0381790772080421</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2446515262126922</v>
+        <v>-0.1973094791173935</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5417299270629863</v>
+        <v>-0.02146565914155785</v>
       </c>
       <c r="D17" t="n">
-        <v>5.275527954101563</v>
+        <v>4.178134083747851</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.05354586243629561</v>
+        <v>1.41586604714393</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0394008085131645</v>
+        <v>-0.2321287989616394</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1130100712180137</v>
+        <v>-0.2197587788105011</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1357648074626922</v>
+        <v>0.07544185966253281</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.06840181350708066</v>
+        <v>0.8478746414184657</v>
       </c>
       <c r="D18" t="n">
-        <v>5.362720489501952</v>
+        <v>4.644729614257818</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7121562957763687</v>
+        <v>0.6306794285774192</v>
       </c>
       <c r="F18" t="n">
-        <v>0.038026362657547</v>
+        <v>-0.051312681287527</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1304197311401367</v>
+        <v>-0.1487456858158111</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0140499006956815</v>
+        <v>0.2446515262126922</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.2478119134902955</v>
+        <v>0.5417299270629863</v>
       </c>
       <c r="D19" t="n">
-        <v>5.057902812957763</v>
+        <v>5.275527954101563</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.9678008556365962</v>
+        <v>-0.05354586243629561</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0109955742955207</v>
+        <v>0.0394008085131645</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0171042270958423</v>
+        <v>0.1130100712180137</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008399397134780801</v>
+        <v>0.1357648074626922</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1933193206787098</v>
+        <v>-0.06840181350708066</v>
       </c>
       <c r="D20" t="n">
-        <v>4.857315659523011</v>
+        <v>5.362720489501952</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.8107852339744572</v>
+        <v>-0.7121562957763687</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.009468411095440299</v>
+        <v>0.038026362657547</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0296269636601209</v>
+        <v>0.1304197311401367</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01328631862998</v>
+        <v>0.0140499006956815</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.09762549400329572</v>
+        <v>-0.2478119134902955</v>
       </c>
       <c r="D21" t="n">
-        <v>5.140351414680481</v>
+        <v>5.057902812957763</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.9125521183013916</v>
+        <v>-0.9678008556365962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0082466807216405</v>
+        <v>-0.0109955742955207</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.0019853119738399</v>
+        <v>0.0171042270958423</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0193949714303016</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0591449737548828</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.12626314163208</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.9117343425750732</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.00167987938039</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0018325957935303</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.009010262787342</v>
+        <v>0.008399397134780801</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-46/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-46/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.747647881507874</v>
+        <v>-3.616065740585328</v>
       </c>
       <c r="D2" t="n">
-        <v>4.277600646018982</v>
+        <v>4.469793319702149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2108629420399666</v>
+        <v>0.258730050176382</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0218384321779012</v>
+        <v>0.0594066455960273</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.036499198526144</v>
+        <v>0.1411098688840866</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0226020142436027</v>
+        <v>0.0326812900602817</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3.872398495674133</v>
+        <v>-3.719920873641968</v>
       </c>
       <c r="D3" t="n">
-        <v>4.347799897193909</v>
+        <v>4.70874035358429</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4252039864659314</v>
+        <v>0.04408367723226582</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00137444678694</v>
+        <v>0.0723875313997268</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0125227374956011</v>
+        <v>0.0080939643085002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0018325957935303</v>
+        <v>0.0835358202457428</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.904903650283813</v>
+        <v>-3.721616864204406</v>
       </c>
       <c r="D4" t="n">
-        <v>4.009042739868163</v>
+        <v>4.585918724536896</v>
       </c>
       <c r="E4" t="n">
-        <v>1.121196746826173</v>
+        <v>0.2726323418319225</v>
       </c>
       <c r="F4" t="n">
-        <v>0.064446285367012</v>
+        <v>0.0029016099870204</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1020144969224929</v>
+        <v>0.0274889357388019</v>
       </c>
       <c r="H4" t="n">
-        <v>0.090408056974411</v>
+        <v>0.0937678143382072</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.147337973117831</v>
+        <v>-3.805010795593262</v>
       </c>
       <c r="D5" t="n">
-        <v>3.341572999954222</v>
+        <v>4.544945240020752</v>
       </c>
       <c r="E5" t="n">
-        <v>1.590219795703887</v>
+        <v>0.311984956264496</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0655152946710586</v>
+        <v>0.0433714315295219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2060143053531646</v>
+        <v>0.0073303831741213</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2438879460096359</v>
+        <v>-0.0807869285345077</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.578064322471619</v>
+        <v>-3.887511849403381</v>
       </c>
       <c r="D6" t="n">
-        <v>2.440073847770686</v>
+        <v>4.449418604373932</v>
       </c>
       <c r="E6" t="n">
-        <v>1.919119298458106</v>
+        <v>0.4409204423427582</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1971567571163177</v>
+        <v>0.0352774672210216</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3791945874691009</v>
+        <v>0.0056505035609006</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0610865242779254</v>
+        <v>0.0056505035609006</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.763241469860086</v>
+        <v>-3.778247833251953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9537072181701609</v>
+        <v>4.410304188728333</v>
       </c>
       <c r="E7" t="n">
-        <v>3.53445836901665</v>
+        <v>0.5136718302965164</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3149010241031647</v>
+        <v>0.0557414554059505</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4572326242923736</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2616030275821686</v>
+        <v>-0.1820378452539444</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-6.981464385986306</v>
+        <v>-3.584390580654144</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2511000633239622</v>
+        <v>4.580866992473602</v>
       </c>
       <c r="E8" t="n">
-        <v>4.341212272644047</v>
+        <v>0.3528684750199313</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2191479057073593</v>
+        <v>-0.0462730415165424</v>
       </c>
       <c r="G8" t="n">
-        <v>1.047023057937622</v>
+        <v>-0.0134390350431203</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.107512280344963</v>
+        <v>-0.0310014113783836</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.964182496070859</v>
+        <v>-3.46419882774353</v>
       </c>
       <c r="D9" t="n">
-        <v>2.53690141439438</v>
+        <v>4.518833875656127</v>
       </c>
       <c r="E9" t="n">
-        <v>5.374873697757723</v>
+        <v>0.403674334287644</v>
       </c>
       <c r="F9" t="n">
-        <v>1.168585181236267</v>
+        <v>0.0276416521519422</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.228741884231567</v>
+        <v>0.001527163083665</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.9682214260101318</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6403729915618919</v>
+        <v>-3.414171874523162</v>
       </c>
       <c r="D10" t="n">
-        <v>8.453629255294809</v>
+        <v>4.371547281742096</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.445600330829628</v>
+        <v>0.5634630396962166</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5827654600143433</v>
+        <v>-0.0464257597923278</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8587238192558289</v>
+        <v>-0.0105374250560998</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.957046031951904</v>
+        <v>-0.06368270516395561</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25.52450680732733</v>
+        <v>-3.423850417137146</v>
       </c>
       <c r="D11" t="n">
-        <v>10.11635231971741</v>
+        <v>4.383899688720703</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.67163440585143</v>
+        <v>0.5505108982324599</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6496551632881165</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.849991798400879</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="H11" t="n">
-        <v>1.479821085929871</v>
+        <v>0.0233655963093042</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.21333217620842</v>
+        <v>-3.575843572616578</v>
       </c>
       <c r="D12" t="n">
-        <v>6.795180916786184</v>
+        <v>4.333066165447235</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.62865638732902</v>
+        <v>0.460273951292038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3932445049285888</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2875648140907287</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4578435122966766</v>
+        <v>0.0587957799434661</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.512938618659968</v>
+        <v>-3.668661117553711</v>
       </c>
       <c r="D13" t="n">
-        <v>4.070763558149341</v>
+        <v>4.494052410125732</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.205098286271084</v>
+        <v>0.1578152179718018</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0209221355617046</v>
+        <v>0.0198531206697225</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8381071090698242</v>
+        <v>-0.0583376325666904</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4121813178062439</v>
+        <v>0.0022907445672899</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.09360861778259269</v>
+        <v>-3.737768590450287</v>
       </c>
       <c r="D14" t="n">
-        <v>5.09270715713501</v>
+        <v>4.342036247253418</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.006848305463790894</v>
+        <v>0.1853629685938359</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3355177342891693</v>
+        <v>-0.0027488935738801</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.3600914478302</v>
+        <v>-0.0503963828086853</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2121229618787765</v>
+        <v>0.0137444678694009</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4487386941909907</v>
+        <v>-3.747647881507874</v>
       </c>
       <c r="D15" t="n">
-        <v>5.822665631771091</v>
+        <v>4.277600646018982</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.949815332889539</v>
+        <v>0.2108629420399666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1876883506774902</v>
+        <v>0.0218384321779012</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.909106612205505</v>
+        <v>-0.036499198526144</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.6495024561882019</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.47012042999266</v>
+        <v>-3.872398495674133</v>
       </c>
       <c r="D16" t="n">
-        <v>6.646041870117178</v>
+        <v>4.347799897193909</v>
       </c>
       <c r="E16" t="n">
-        <v>2.636732816696162</v>
+        <v>0.4252039864659314</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6143777370452881</v>
+        <v>-0.00137444678694</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0381790772080421</v>
+        <v>0.0125227374956011</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1973094791173935</v>
+        <v>0.0018325957935303</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02146565914155785</v>
+        <v>-3.904903650283813</v>
       </c>
       <c r="D17" t="n">
-        <v>4.178134083747851</v>
+        <v>4.009042739868163</v>
       </c>
       <c r="E17" t="n">
-        <v>1.41586604714393</v>
+        <v>1.121196746826173</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2321287989616394</v>
+        <v>0.064446285367012</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2197587788105011</v>
+        <v>0.1020144969224929</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07544185966253281</v>
+        <v>0.090408056974411</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8478746414184657</v>
+        <v>-4.147337973117831</v>
       </c>
       <c r="D18" t="n">
-        <v>4.644729614257818</v>
+        <v>3.341572999954222</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6306794285774192</v>
+        <v>1.590219795703887</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.051312681287527</v>
+        <v>-0.0655152946710586</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1487456858158111</v>
+        <v>0.2060143053531646</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2446515262126922</v>
+        <v>0.2438879460096359</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5417299270629863</v>
+        <v>-4.578064322471619</v>
       </c>
       <c r="D19" t="n">
-        <v>5.275527954101563</v>
+        <v>2.440073847770686</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.05354586243629561</v>
+        <v>1.919119298458106</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0394008085131645</v>
+        <v>0.1971567571163177</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1130100712180137</v>
+        <v>0.3791945874691009</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1357648074626922</v>
+        <v>-0.0610865242779254</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.06840181350708066</v>
+        <v>-4.763241469860086</v>
       </c>
       <c r="D20" t="n">
-        <v>5.362720489501952</v>
+        <v>0.9537072181701609</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7121562957763687</v>
+        <v>3.53445836901665</v>
       </c>
       <c r="F20" t="n">
-        <v>0.038026362657547</v>
+        <v>-0.3149010241031647</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1304197311401367</v>
+        <v>0.4572326242923736</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0140499006956815</v>
+        <v>0.2616030275821686</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.2478119134902955</v>
+        <v>-6.981464385986306</v>
       </c>
       <c r="D21" t="n">
-        <v>5.057902812957763</v>
+        <v>-0.2511000633239622</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.9678008556365962</v>
+        <v>4.341212272644047</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0109955742955207</v>
+        <v>-0.2191479057073593</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0171042270958423</v>
+        <v>1.047023057937622</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008399397134780801</v>
+        <v>-0.107512280344963</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.964182496070859</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.53690141439438</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.374873697757723</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.168585181236267</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.228741884231567</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.9682214260101318</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6403729915618919</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8.453629255294809</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.445600330829628</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5827654600143433</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8587238192558289</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2.957046031951904</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>25.52450680732733</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.11635231971741</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-29.67163440585143</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.6496551632881165</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2.849991798400879</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.479821085929871</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>21.21333217620842</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.795180916786184</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-24.62865638732902</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3932445049285888</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2875648140907287</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.4578435122966766</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.512938618659968</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.070763558149341</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.205098286271084</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0209221355617046</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.8381071090698242</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.4121813178062439</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.09360861778259269</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.09270715713501</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.006848305463790894</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.3355177342891693</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.3600914478302</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2121229618787765</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4487386941909907</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.822665631771091</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.949815332889539</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1876883506774902</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.909106612205505</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.6495024561882019</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3.47012042999266</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.646041870117178</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.636732816696162</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.6143777370452881</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0381790772080421</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.1973094791173935</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.02146565914155785</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.178134083747851</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.41586604714393</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.2321287989616394</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.2197587788105011</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.07544185966253281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8478746414184657</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.644729614257818</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.6306794285774192</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.051312681287527</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.1487456858158111</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2446515262126922</v>
       </c>
     </row>
   </sheetData>
